--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1456536.608943963</v>
+        <v>1454649.027427562</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>538993.2923476</v>
+        <v>190004.4387040063</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>352.9092725847007</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>132.683699357347</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -747,10 +747,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231968</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.790440613649746</v>
+        <v>58.69923944397664</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>33.41419987006896</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>11.44871811097188</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>35.85115782931135</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>155.886038567534</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>157.7160814926263</v>
+        <v>31.01802695925025</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,28 +1333,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>20.30061708736343</v>
+        <v>171.9664138887665</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>130.8120409536876</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185863</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>237.396509186925</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>70.28434394414742</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750033</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>246.5275659684225</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750033</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>207.6951870029948</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002174</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>259.033019256462</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2770,16 +2770,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>66.90445977359191</v>
       </c>
       <c r="W28" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>73.49172644326383</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>64.03147130695073</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965526</v>
+        <v>93.41221638965534</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801207</v>
+        <v>91.23070601801216</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437415</v>
+        <v>90.21779139437423</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571488</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523569</v>
+        <v>54.76109577523577</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329193</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1448.576038264086</v>
+        <v>1701.775251950352</v>
       </c>
       <c r="C2" t="n">
-        <v>1079.613521323674</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D2" t="n">
-        <v>1079.613521323674</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E2" t="n">
-        <v>1079.613521323674</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>668.6276165340669</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4325,16 +4325,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500978</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500978</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W2" t="n">
-        <v>2212.181128500978</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.715370239898</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="Y2" t="n">
-        <v>1448.576038264086</v>
+        <v>2088.375092014473</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4404,46 +4404,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>368.8844281164663</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>773.5003462121382</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4495,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064343</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064343</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064343</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064343</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694737</v>
+        <v>261.1482364572794</v>
       </c>
       <c r="X4" t="n">
-        <v>210.7222632714564</v>
+        <v>261.1482364572794</v>
       </c>
       <c r="Y4" t="n">
-        <v>210.7222632714564</v>
+        <v>261.1482364572794</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1749.341643278937</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>891.4467595608955</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>505.6585069626513</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2685.584729289968</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2509.407241604139</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2509.407241604139</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2509.407241604139</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2509.407241604139</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2509.407241604139</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>2135.941483343059</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>2135.941483343059</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>259.1560728187102</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>259.1560728187102</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>259.1560728187102</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>259.1560728187102</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>259.1560728187102</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>90.1562725570426</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>513.840561024597</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>513.840561024597</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V7" t="n">
-        <v>259.1560728187102</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>259.1560728187102</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>259.1560728187102</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>259.1560728187102</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1744.232431292459</v>
+        <v>1365.680170394969</v>
       </c>
       <c r="C8" t="n">
-        <v>1375.269914352047</v>
+        <v>996.7176534545576</v>
       </c>
       <c r="D8" t="n">
-        <v>1017.004215745297</v>
+        <v>638.4519548478072</v>
       </c>
       <c r="E8" t="n">
-        <v>631.2159631470527</v>
+        <v>252.663702249563</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W8" t="n">
-        <v>2520.971603332393</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X8" t="n">
-        <v>2520.971603332393</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y8" t="n">
-        <v>2130.832271356581</v>
+        <v>1752.280010459091</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,46 +4884,46 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>368.8844281164668</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>773.5003462121387</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1297.64725977017</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>463.9179680525992</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="V10" t="n">
-        <v>463.9179680525992</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="W10" t="n">
-        <v>463.9179680525992</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9284171545819</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.9284171545819</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5024,16 +5024,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>452.5377573864724</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M12" t="n">
-        <v>1220.905903778934</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N12" t="n">
-        <v>2025.317482043085</v>
+        <v>2029.138566119363</v>
       </c>
       <c r="O12" t="n">
-        <v>2274.070896127047</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>545.1765965867977</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>376.2404136588908</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>376.2404136588908</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150548</v>
+        <v>130.9054447954966</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>388.8958536704856</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L15" t="n">
-        <v>1002.792923427374</v>
+        <v>688.9285765597825</v>
       </c>
       <c r="M15" t="n">
-        <v>1387.765035414674</v>
+        <v>1009.263896089484</v>
       </c>
       <c r="N15" t="n">
-        <v>2192.176613678825</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O15" t="n">
-        <v>2440.930027762787</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,7 +5452,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655735</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>665.685973528613</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>665.685973528613</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>594.6916867163428</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5510,19 +5510,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,28 +5531,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.32563221405</v>
+        <v>608.7668769249128</v>
       </c>
       <c r="M18" t="n">
-        <v>2056.693778606511</v>
+        <v>1377.135023317374</v>
       </c>
       <c r="N18" t="n">
-        <v>2623.573505376138</v>
+        <v>2181.546601581525</v>
       </c>
       <c r="O18" t="n">
-        <v>2623.573505376138</v>
+        <v>2430.300015665487</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028581</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028581</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028581</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028581</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="20">
@@ -5741,22 +5741,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5832,25 +5832,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>711.1141612171745</v>
+        <v>1069.673595198699</v>
       </c>
       <c r="M21" t="n">
-        <v>1479.482307609636</v>
+        <v>1069.673595198699</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.893885873787</v>
+        <v>1874.08517346285</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>754.3426236399425</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028581</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028581</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5966,46 +5966,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6069,25 +6069,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L24" t="n">
-        <v>508.1073603047985</v>
+        <v>649.7480011519468</v>
       </c>
       <c r="M24" t="n">
-        <v>508.1073603047985</v>
+        <v>970.0833206816486</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>702.4862274243194</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>447.8017392184325</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>447.8017392184325</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184325</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6239,37 +6239,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028587</v>
+        <v>661.6060969157199</v>
       </c>
       <c r="M27" t="n">
-        <v>334.288126757867</v>
+        <v>1429.974243308181</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6406,25 +6406,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706319</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
         <v>97.21709146028587</v>
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,19 +6452,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6476,37 +6476,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>883.924064976095</v>
       </c>
       <c r="M30" t="n">
-        <v>334.288126757867</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>656.2176762508391</v>
+        <v>439.5324299542176</v>
       </c>
       <c r="C31" t="n">
-        <v>543.042358604303</v>
+        <v>374.8541761088129</v>
       </c>
       <c r="D31" t="n">
-        <v>448.686584473338</v>
+        <v>280.4984019778478</v>
       </c>
       <c r="E31" t="n">
-        <v>356.5343561723157</v>
+        <v>188.3461736768255</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557762</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
@@ -6643,10 +6643,10 @@
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
         <v>1568.62813016707</v>
@@ -6658,13 +6658,13 @@
         <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818936</v>
+        <v>902.6804289818926</v>
       </c>
       <c r="X31" t="n">
-        <v>730.451743365247</v>
+        <v>730.451743365246</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.451743365247</v>
+        <v>565.4200295030867</v>
       </c>
     </row>
     <row r="32">
@@ -6677,34 +6677,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>263.5382936126482</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L33" t="n">
-        <v>263.5382936126482</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M33" t="n">
-        <v>629.3975440735811</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N33" t="n">
-        <v>1433.809122337732</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O33" t="n">
-        <v>2103.272883640391</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108342</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229684</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506738</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083218</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
         <v>320.8847398504512</v>
@@ -6853,19 +6853,19 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045215</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010328</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,34 +6926,34 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.627437207831</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>323.6581146605669</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>323.6581146605669</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M36" t="n">
-        <v>323.6581146605669</v>
+        <v>1276.47550669726</v>
       </c>
       <c r="N36" t="n">
-        <v>1128.069692924718</v>
+        <v>1620.996162334878</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108338</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222968</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506734</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083214</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504521</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,10 +7093,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7108,37 +7108,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045215</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7169,13 +7169,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7190,34 +7190,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>323.6581146605669</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L39" t="n">
-        <v>323.6581146605669</v>
+        <v>240.8957496970231</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6581146605669</v>
+        <v>1009.263896089485</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.069692924718</v>
+        <v>1353.784551727103</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504512</v>
@@ -7327,10 +7327,10 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254956</v>
@@ -7342,7 +7342,7 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7491,25 +7491,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M42" t="n">
-        <v>334.288126757867</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7567,7 +7567,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254958</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>661.3152587829632</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F46" t="n">
         <v>320.8847398504512</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8781,7 +8781,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>249.719509323647</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8790,7 +8790,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9024,10 +9024,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>360.6463224611138</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9255,16 +9255,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9498,10 +9498,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9957,10 +9957,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9975,7 +9975,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>350.1659984858683</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10212,7 +10212,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,16 +10428,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>378.6355840713939</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>198.5685309419536</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>198.5685309419536</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>157.0605395565407</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11382,19 +11382,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>353.0203989689786</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>15.62192169288151</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>192.3581855871785</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>14.74113413690296</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>148.3003094079474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338592</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>5.610077355405508</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338594</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>78.54216539558257</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338589</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>27.20433314211539</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>185.2331835502361</v>
       </c>
       <c r="W28" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>51.13699711011638</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>48.01209316312008</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897903</v>
+        <v>93.71057173897911</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571497</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.196278644478477e-12</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>938469.7433705016</v>
+        <v>938469.7433705017</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>938469.7433705016</v>
+        <v>938469.7433705017</v>
       </c>
     </row>
     <row r="7">
@@ -26314,43 +26314,43 @@
         <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="D2" t="n">
         <v>451572.973425356</v>
       </c>
       <c r="E2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114799</v>
       </c>
       <c r="F2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114796</v>
       </c>
       <c r="G2" t="n">
         <v>430131.9657114797</v>
       </c>
       <c r="H2" t="n">
+        <v>430131.9657114799</v>
+      </c>
+      <c r="I2" t="n">
         <v>430131.9657114797</v>
       </c>
-      <c r="I2" t="n">
-        <v>430131.9657114798</v>
-      </c>
       <c r="J2" t="n">
-        <v>430131.9657114795</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="K2" t="n">
-        <v>447504.351079797</v>
+        <v>447504.3510797973</v>
       </c>
       <c r="L2" t="n">
+        <v>451572.9734253562</v>
+      </c>
+      <c r="M2" t="n">
+        <v>451572.9734253564</v>
+      </c>
+      <c r="N2" t="n">
         <v>451572.9734253563</v>
       </c>
-      <c r="M2" t="n">
-        <v>451572.9734253563</v>
-      </c>
-      <c r="N2" t="n">
-        <v>451572.9734253562</v>
-      </c>
       <c r="O2" t="n">
-        <v>451572.9734253563</v>
+        <v>451572.9734253564</v>
       </c>
       <c r="P2" t="n">
         <v>451572.9734253564</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.60530284561</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086687</v>
+        <v>10342.9068008669</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284564</v>
       </c>
     </row>
     <row r="4">
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758359</v>
       </c>
       <c r="G4" t="n">
-        <v>787.79369057589</v>
+        <v>787.7936905758514</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758695</v>
@@ -26439,19 +26439,19 @@
         <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758218</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
         <v>18952.41620477239</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
         <v>23206.58093189634</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189632</v>
+        <v>23206.58093189637</v>
       </c>
       <c r="O4" t="n">
         <v>23206.58093189634</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26482,34 +26482,34 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="O5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-360313.1230332171</v>
+        <v>-360313.1230332169</v>
       </c>
       <c r="C6" t="n">
-        <v>229654.7561813275</v>
+        <v>229654.7561813274</v>
       </c>
       <c r="D6" t="n">
         <v>229654.7561813275</v>
       </c>
       <c r="E6" t="n">
-        <v>-187803.1904047088</v>
+        <v>-187900.6495306809</v>
       </c>
       <c r="F6" t="n">
-        <v>337356.8460721873</v>
+        <v>337259.386946215</v>
       </c>
       <c r="G6" t="n">
-        <v>337356.8460721872</v>
+        <v>337259.386946215</v>
       </c>
       <c r="H6" t="n">
-        <v>337356.8460721872</v>
+        <v>337259.3869462152</v>
       </c>
       <c r="I6" t="n">
-        <v>337356.8460721873</v>
+        <v>337259.386946215</v>
       </c>
       <c r="J6" t="n">
-        <v>160933.6268795941</v>
+        <v>160836.1677536221</v>
       </c>
       <c r="K6" t="n">
-        <v>287761.1210419561</v>
+        <v>287742.6273040221</v>
       </c>
       <c r="L6" t="n">
-        <v>320308.3798725677</v>
+        <v>320308.3798725676</v>
       </c>
       <c r="M6" t="n">
-        <v>195850.2714395973</v>
+        <v>195850.2714395974</v>
       </c>
       <c r="N6" t="n">
-        <v>330651.2866734344</v>
+        <v>330651.2866734345</v>
       </c>
       <c r="O6" t="n">
-        <v>330651.2866734345</v>
+        <v>330651.2866734347</v>
       </c>
       <c r="P6" t="n">
         <v>286488.681370589</v>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964068</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964065</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26750,13 +26750,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26765,16 +26765,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108358</v>
+        <v>12.92863350108362</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>12.36361918630689</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>281.100470663448</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170.0415395682876</v>
+        <v>121.1327407379607</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>373.4618458716425</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>43.02968446383983</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>120.3197310124838</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>249.1599642490851</v>
+        <v>375.8580187824612</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>265.9812571546143</v>
+        <v>114.3154603532113</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -31130,7 +31130,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>115.481539230439</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31142,13 +31142,13 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>73.87984549392741</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034982</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>87.78329382423996</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454957967</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,19 +31592,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>115.4815392304395</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31838,16 +31838,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>464.5362854813462</v>
@@ -31856,10 +31856,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>98.44906376001165</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -32075,25 +32075,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>365.4024032637855</v>
       </c>
       <c r="M15" t="n">
-        <v>65.28968935110953</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,19 +32312,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32552,19 +32552,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>334.9526555813649</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>91.84465193776708</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,16 +32716,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32789,34 +32789,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>325.8260644679918</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>288.9613021006076</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -33029,22 +33029,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>337.8039389768535</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33187,7 +33187,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565519</v>
@@ -33260,10 +33260,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -33272,10 +33272,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -33506,28 +33506,28 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>45.98376861740519</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,25 +33734,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>268.1222443746796</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,16 +33910,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647508</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -33980,10 +33980,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33992,16 +33992,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,16 +34147,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34211,7 +34211,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -34220,25 +34220,25 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>63.43474313802659</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34366,7 +34366,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34445,31 +34445,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>242.1053372686586</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>242.1053372686591</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>107.1232648792026</v>
       </c>
       <c r="P12" t="n">
-        <v>282.9374249856186</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>597.6883687873705</v>
       </c>
       <c r="M15" t="n">
-        <v>388.8607191790911</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>222.0919426812396</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>567.2386211049499</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>343.1107267700522</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,19 +36358,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
         <v>570.6060255109123</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>558.1120299915768</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>636.9619643608278</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>570.0899045004385</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221117</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>211.6116187059941</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197789</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -36932,7 +36932,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.71102679412255</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
@@ -37002,13 +37002,13 @@
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.42895660043177</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>369.5547984453868</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>247.2938719880605</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>60.72709196759461</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>519.3883192069646</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37561,10 +37561,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>60.72709196759461</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>18.50615977666655</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37798,10 +37798,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>239.4656922197789</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>411.4354053982468</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>210.8863650469603</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
